--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B2BF5-965A-4B4B-AEFE-D18D2EE5E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F489D080-064E-449D-9901-1486640513A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -392,6 +393,43 @@
     <t>以上</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ画面仕様</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このシートではプレイシーンの画面仕様について記載します</t>
+    <rPh sb="14" eb="18">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>快適にプレイできるように</t>
+    <rPh sb="0" eb="2">
+      <t>カイテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームの目的をわかりやすく伝える</t>
+    <rPh sb="4" eb="6">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1486,6 +1524,1563 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59D94E8-0CEB-40DB-8B3A-13605B5371B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3281363" y="1981200"/>
+          <a:ext cx="3143250" cy="1676400"/>
+          <a:chOff x="3281363" y="1981200"/>
+          <a:chExt cx="3143250" cy="1676400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D56BCAB-2C8B-4614-AB24-F8B93996F9D7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3281363" y="1981200"/>
+            <a:ext cx="3143250" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="44450">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAB2F2A-B6C7-402E-BF8C-09D60391CC6E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4138612" y="1981200"/>
+            <a:ext cx="1414464" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="二等辺三角形 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72F30D9-C117-4495-864A-566B1910389E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="5795963" y="2895600"/>
+            <a:ext cx="471487" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="スマイル 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4AA6F7-3F49-4A0C-A5F5-2363484F1833}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5795963" y="2438400"/>
+            <a:ext cx="471487" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8899616F-EAB2-4201-990E-065A656636A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3443288" y="2138362"/>
+            <a:ext cx="628650" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>999</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>score</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>9999</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="図 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B309EC-F921-4A32-A58B-76F95F6F3A69}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3314701" y="3047947"/>
+            <a:ext cx="810838" cy="609653"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C953CDB-0A5C-467A-896A-C55E4D550CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7524750" y="1981200"/>
+          <a:ext cx="3143250" cy="1676400"/>
+          <a:chOff x="3281363" y="1981200"/>
+          <a:chExt cx="3143250" cy="1676400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8039428-56E0-4F22-91E8-6DDF2C21F7FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3281363" y="1981200"/>
+            <a:ext cx="3143250" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="44450">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAEA1C8-486C-4DFD-BA99-FDF1171F74E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4138612" y="1981200"/>
+            <a:ext cx="1414464" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="二等辺三角形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77646DB-B479-49D4-9AA5-9518691B0CA6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="5795963" y="2895600"/>
+            <a:ext cx="471487" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="スマイル 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362AA9B0-0347-4D86-9DD0-555FC31378CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5795963" y="2438400"/>
+            <a:ext cx="471487" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="テキスト ボックス 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396D78FD-AAF0-4EBA-92F2-82A5AA773F59}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3443288" y="2138362"/>
+            <a:ext cx="628650" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>999</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>score</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>9999</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="33" name="図 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77F08E9-77EA-4B7E-8C39-C1294A4883CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3314701" y="3047947"/>
+            <a:ext cx="810838" cy="609653"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A3076C-61CF-46C0-9C10-16608E234CB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6738938" y="1981200"/>
+          <a:ext cx="471487" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>時間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3F6927-C158-469E-BDED-2B7D0A13231D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7681913" y="2133600"/>
+          <a:ext cx="628650" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008C1993-9F98-4BF4-8C62-6C9C7551F9C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524749" y="2976562"/>
+          <a:ext cx="942975" cy="681038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D917E119-4C91-4DC2-B863-A0D74DA5F45E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8301038" y="1757362"/>
+          <a:ext cx="1581150" cy="2052638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEB3C1B-72FE-4DD7-A995-ADDCE4539435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="2324100"/>
+          <a:ext cx="762000" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C4D442-614C-45C7-B204-B0B78DEF0501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4786313" y="3305174"/>
+          <a:ext cx="157162" cy="185738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="ハート 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65AD856-C76E-47EA-B699-A73E94384BCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4538663" y="2438400"/>
+          <a:ext cx="157162" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41287523-F1BD-42DF-AF98-89083ADFB453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9186863" y="3319462"/>
+          <a:ext cx="157162" cy="185738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="ハート 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8E6219-85AB-4F8E-A4B6-49ACA3D9F160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8939213" y="2452688"/>
+          <a:ext cx="157162" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="ハート 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AB736E-21E7-4230-920B-D19DF268598C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4691063" y="2590800"/>
+          <a:ext cx="157162" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="ハート 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B256494-1BBE-47F1-893C-BA70F52DA424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096375" y="2590800"/>
+          <a:ext cx="157162" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D640317-EE4A-4EF9-B43B-192B429DF96C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782050" y="2286000"/>
+          <a:ext cx="628650" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126BE788-3227-456A-88CC-7F7819E70284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8939213" y="3043237"/>
+          <a:ext cx="628650" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1832,7 +3427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -2027,4 +3624,84 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
+  <dimension ref="A1:E108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="51" spans="3:3" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C51" s="10"/>
+    </row>
+    <row r="67" spans="3:3" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C67" s="10"/>
+    </row>
+    <row r="81" spans="3:3" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C81" s="10"/>
+    </row>
+    <row r="108" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D108" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F489D080-064E-449D-9901-1486640513A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC1029-A0D9-4624-95C7-F7BB4EE99652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="プレイ画面仕様" sheetId="3" r:id="rId3"/>
+    <sheet name="ランキング画面仕様" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -430,6 +431,578 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面の構成要素は以下の通り</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コウセイヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・数値</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・フレーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ラブレター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・女の子</t>
+    <rPh sb="1" eb="2">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残り時間と得点を表示します</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示方法</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上の図の通り</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラブレター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーが操作するもの</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フレーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームの枠を表しています</t>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Aキーで左に移動</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Dキーで右に移動</t>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・左右のフレームより外側には出られない</t>
+    <rPh sb="1" eb="3">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面割</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンワリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:2:1の割合で作成してください</t>
+    <rPh sb="6" eb="8">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・この枠の中で後述するハートとラブレターが動く</t>
+    <rPh sb="3" eb="4">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・フレーム内の色は淡いオレンジ単色</t>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・フレームの枠は深めのグレー単色</t>
+    <rPh sb="6" eb="7">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーがキャッチするものです</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートの種類は3種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・赤ハート</t>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・青ハート</t>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・黄ハート</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100点</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スコアは最大5桁まで表示</t>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>－50点</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>300点（落下速度を赤ハートの2倍に）</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ラッカソクド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラブレターにハートが当たった時スコアが増える</t>
+    <rPh sb="19" eb="20">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面外に消えてから消えるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面内でパッと消えないようにしてください</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンナイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動速度は赤ハートの1.3倍にしてください</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは後から変更できるようにわかりやすくコメントもしておいてください</t>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これらは後から変更できるようにわかりやすくコメントもしておいてください</t>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドット絵の青空をいれてください</t>
+    <rPh sb="3" eb="4">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アオゾラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドキュメントの素材ファイルに入れておきます</t>
+    <rPh sb="7" eb="9">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル画面仕様</t>
+    <rPh sb="4" eb="8">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ画面仕様</t>
+    <rPh sb="3" eb="7">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング画面仕様</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このシートではランキング画面の仕様を記載します</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女の子</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>挿絵として入れます</t>
+    <rPh sb="0" eb="2">
+      <t>サシエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示画像</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル画面の女の子の立ち絵とします</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドキュメントファイル→素材に入れておきます</t>
+    <rPh sb="11" eb="13">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ランキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・タイトル誘導</t>
+    <rPh sb="5" eb="7">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上の図のように表示</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキングの枠だけ少し大きく</t>
+    <rPh sb="6" eb="7">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル誘導</t>
+    <rPh sb="4" eb="6">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景で見えなくならないように注意</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイシーンと同じ絵を使用</t>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング画面仕様</t>
+    <rPh sb="5" eb="9">
+      <t>ガメンシヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -525,12 +1098,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -539,7 +1127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +1165,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,355 +2130,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59D94E8-0CEB-40DB-8B3A-13605B5371B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3281363" y="1981200"/>
-          <a:ext cx="3143250" cy="1676400"/>
-          <a:chOff x="3281363" y="1981200"/>
-          <a:chExt cx="3143250" cy="1676400"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="正方形/長方形 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D56BCAB-2C8B-4614-AB24-F8B93996F9D7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3281363" y="1981200"/>
-            <a:ext cx="3143250" cy="1676400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="44450">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="正方形/長方形 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAB2F2A-B6C7-402E-BF8C-09D60391CC6E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4138612" y="1981200"/>
-            <a:ext cx="1414464" cy="1676400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln w="31750">
-            <a:solidFill>
-              <a:schemeClr val="bg2"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="二等辺三角形 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72F30D9-C117-4495-864A-566B1910389E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="5795963" y="2895600"/>
-            <a:ext cx="471487" cy="609600"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="スマイル 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4AA6F7-3F49-4A0C-A5F5-2363484F1833}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5795963" y="2438400"/>
-            <a:ext cx="471487" cy="419100"/>
-          </a:xfrm>
-          <a:prstGeom prst="smileyFace">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキスト ボックス 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8899616F-EAB2-4201-990E-065A656636A2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3443288" y="2138362"/>
-            <a:ext cx="628650" cy="914400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>time</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>999</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>score</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>9999</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="24" name="図 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B309EC-F921-4A32-A58B-76F95F6F3A69}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3314701" y="3047947"/>
-            <a:ext cx="810838" cy="609653"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -1906,8 +2154,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7524750" y="1981200"/>
-          <a:ext cx="3143250" cy="1676400"/>
+          <a:off x="7604760" y="1981200"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -2197,35 +2445,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="33" name="図 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77F08E9-77EA-4B7E-8C39-C1294A4883CE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3314701" y="3047947"/>
-            <a:ext cx="810838" cy="609653"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2264,11 +2483,9 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="25400" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2292,7 +2509,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>時間</a:t>
+            <a:t>数値</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2327,72 +2544,6 @@
         <a:xfrm>
           <a:off x="7681913" y="2133600"/>
           <a:ext cx="628650" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>157161</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>157161</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008C1993-9F98-4BF4-8C62-6C9C7551F9C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7524749" y="2976562"/>
-          <a:ext cx="942975" cy="681038"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2565,193 +2716,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C4D442-614C-45C7-B204-B0B78DEF0501}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4786313" y="3305174"/>
-          <a:ext cx="157162" cy="185738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="ハート 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65AD856-C76E-47EA-B699-A73E94384BCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4538663" y="2438400"/>
-          <a:ext cx="157162" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="heart">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41287523-F1BD-42DF-AF98-89083ADFB453}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9186863" y="3319462"/>
-          <a:ext cx="157162" cy="185738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -2819,69 +2783,478 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="ハート 42">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="グループ化 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AB736E-21E7-4230-920B-D19DF268598C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FC4E4B-AB18-4141-ACE6-0C5AFC9726EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4691063" y="2590800"/>
-          <a:ext cx="157162" cy="152400"/>
+          <a:off x="3307080" y="1981200"/>
+          <a:ext cx="3200400" cy="1676400"/>
+          <a:chOff x="3307080" y="1981200"/>
+          <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
-        <a:prstGeom prst="heart">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="グループ化 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59D94E8-0CEB-40DB-8B3A-13605B5371B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3307080" y="1981200"/>
+            <a:ext cx="3200400" cy="1676400"/>
+            <a:chOff x="3281363" y="1981200"/>
+            <a:chExt cx="3143250" cy="1676400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="正方形/長方形 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D56BCAB-2C8B-4614-AB24-F8B93996F9D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3281363" y="1981200"/>
+              <a:ext cx="3143250" cy="1676400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            <a:ln w="44450">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="正方形/長方形 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAB2F2A-B6C7-402E-BF8C-09D60391CC6E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4138612" y="1981200"/>
+              <a:ext cx="1414464" cy="1676400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="二等辺三角形 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72F30D9-C117-4495-864A-566B1910389E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="5795963" y="2895600"/>
+              <a:ext cx="471487" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="スマイル 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4AA6F7-3F49-4A0C-A5F5-2363484F1833}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5795963" y="2438400"/>
+              <a:ext cx="471487" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="smileyFace">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="テキスト ボックス 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8899616F-EAB2-4201-990E-065A656636A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3443288" y="2138362"/>
+              <a:ext cx="628650" cy="914400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                <a:t>time</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="r"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                <a:t>999</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="r"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                <a:t>score</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="r"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+                <a:t>9999</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="図 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B309EC-F921-4A32-A58B-76F95F6F3A69}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4590005" y="3200400"/>
+              <a:ext cx="456057" cy="342900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="ハート 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65AD856-C76E-47EA-B699-A73E94384BCB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4564380" y="2438400"/>
+            <a:ext cx="160020" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="heart">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="ハート 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AB736E-21E7-4230-920B-D19DF268598C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4716780" y="2590800"/>
+            <a:ext cx="160020" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="heart">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3019,16 +3392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3043,8 +3416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8939213" y="3043237"/>
-          <a:ext cx="628650" cy="609600"/>
+          <a:off x="8991600" y="3200399"/>
+          <a:ext cx="624840" cy="452437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3078,6 +3451,3770 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10478</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2419B6-03C7-4BA8-8B89-DCBDAEDFE8A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7455218" y="3939540"/>
+          <a:ext cx="972502" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ラブレター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31148424-17C9-47C8-86F8-4908329A6773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6632258" y="3253740"/>
+          <a:ext cx="842962" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フレーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>159549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B77654-54E0-47B3-848D-FF37591EB0F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9060180" y="3253740"/>
+          <a:ext cx="464349" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>10478</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B4C80D-97DF-4FE8-AF26-D8247A9A662D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11135678" y="2750820"/>
+          <a:ext cx="614362" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>女の子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603F8401-F8EE-4D06-84C5-802C81C9D291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10914698" y="1927860"/>
+          <a:ext cx="614362" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ハート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A4E45C-6F82-466C-8082-88FDFC59EDA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7284720" y="2133600"/>
+          <a:ext cx="487680" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4319D58-7403-4319-AEF3-94F4C8EEF515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7475220" y="3185160"/>
+          <a:ext cx="914400" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>16669</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>73818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304E0892-103C-4B51-A607-291603B008F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="47" idx="0"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7941469" y="3426618"/>
+          <a:ext cx="1050131" cy="512922"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>10478</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1F5EB1-A859-4D06-B1A9-6BD68F2107F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+          <a:endCxn id="28" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10805160" y="2819400"/>
+          <a:ext cx="330518" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAFD738-3E91-4127-9F7E-E8D0B9B9FCEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+          <a:endCxn id="45" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9525000" y="2080260"/>
+          <a:ext cx="1389698" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="グループ化 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72448740-7F28-4DB2-AEA0-114921EF36AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3444240" y="5943600"/>
+          <a:ext cx="3200400" cy="1676400"/>
+          <a:chOff x="3281363" y="1981200"/>
+          <a:chExt cx="3143250" cy="1676400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="正方形/長方形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875284BF-C86E-494F-A8CF-8B2CC0614E52}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3281363" y="1981200"/>
+            <a:ext cx="3143250" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="44450">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="正方形/長方形 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E273636-D3BE-4B9E-A471-2002253C1F04}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4138612" y="1981200"/>
+            <a:ext cx="1414464" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="二等辺三角形 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A4DF5C-DF22-404A-A0BB-26E5045EE4E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="5795963" y="2895600"/>
+            <a:ext cx="471487" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="スマイル 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C363DD5-0913-4E9C-8481-33480BD01E56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5795963" y="2438400"/>
+            <a:ext cx="471487" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="テキスト ボックス 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5639C0-89F6-4CA1-B50C-6D217DC49B29}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3443288" y="2138362"/>
+            <a:ext cx="628650" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>999</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>score</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>99999</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="71" name="図 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A2EC2E-3BB4-4A0E-8B59-DCCDEC095B77}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4590005" y="3200400"/>
+            <a:ext cx="456057" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="ハート 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE96E04-497E-4835-8798-C34ADA56FB15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4701540" y="6248400"/>
+          <a:ext cx="160020" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="ハート 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B29C20-4F53-4285-80B2-3444859F25EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4853940" y="6400800"/>
+          <a:ext cx="160020" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="左中かっこ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B289AB-25FD-4A75-AE56-E6B8E3E479F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3810000" y="7101840"/>
+          <a:ext cx="114300" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="左中かっこ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC110474-46DC-43D7-9104-E4F7C9849DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4922520" y="6858000"/>
+          <a:ext cx="350520" cy="1539240"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="左中かっこ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86B6B43-0385-48AC-A067-3DE6BD3A6C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6149340" y="7101840"/>
+          <a:ext cx="114300" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DC478E-24A8-449E-AD78-5D8F8BF50919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6075998" y="7711440"/>
+          <a:ext cx="256222" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>124778</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69EDED1F-3845-4BE6-A0E7-D8D782B923BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3729038" y="7719060"/>
+          <a:ext cx="256222" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2858</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C2A172-51EE-4841-ACA6-D1CBA76A84CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4887278" y="7894320"/>
+          <a:ext cx="256222" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F154D04-16A6-4571-B3E6-C0E7892162C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="3954780"/>
+          <a:ext cx="495300" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631ED086-EB44-4DDC-895B-A0D16AEE02EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="81" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7067550" y="3441858"/>
+          <a:ext cx="880110" cy="512922"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="ハート 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8CC94-BBC4-41CE-B75D-3D7DA49561FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3444240" y="12793980"/>
+          <a:ext cx="594360" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="ハート 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4DACB0-6906-4495-A1F4-F527DE4C7E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="12816840"/>
+          <a:ext cx="594360" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="ハート 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9D7C95-B728-4BBA-B99E-16610037BE78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5478780" y="12854940"/>
+          <a:ext cx="594360" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="グループ化 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7607EEBE-3092-43B4-BDF3-F10818A60BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6149340" y="1440180"/>
+          <a:ext cx="2674620" cy="1440180"/>
+          <a:chOff x="2125980" y="1432560"/>
+          <a:chExt cx="2674620" cy="1440180"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1965AAB1-91ED-4BCB-A04D-E61773508619}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2125980" y="1432560"/>
+            <a:ext cx="2674620" cy="1440180"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="フローチャート: 組合せ 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38E7208-715D-46E0-92DF-6E0BFBA3A240}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4130040" y="2072640"/>
+            <a:ext cx="502920" cy="640080"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="矢印: 五方向 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E874FF-E7C9-42C8-8518-002B5D55115F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2141220" y="1485900"/>
+            <a:ext cx="1318260" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="homePlate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ランキング</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="矢印: 五方向 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F0A934-CB76-48B9-B54D-0C018C3CE2DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2308860" y="1813560"/>
+            <a:ext cx="1318260" cy="198120"/>
+          </a:xfrm>
+          <a:prstGeom prst="homePlate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>99999</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="矢印: 五方向 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31861C6B-11CE-477A-A034-C9A177EB1C42}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2560320" y="2072640"/>
+            <a:ext cx="1318260" cy="167640"/>
+          </a:xfrm>
+          <a:prstGeom prst="homePlate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>55555</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="矢印: 五方向 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFB922D-059D-4731-BF28-5925948FC8E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2750820" y="2301240"/>
+            <a:ext cx="1318260" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="homePlate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>22222</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="スマイル 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4673F06A-FFEC-4402-A099-B9DA69333601}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4130040" y="1592580"/>
+            <a:ext cx="502920" cy="480060"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F77FD3D-4A75-42C0-ACB3-0A5917E187F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2125980" y="1432560"/>
+          <a:ext cx="2674620" cy="1440180"/>
+          <a:chOff x="2125980" y="1432560"/>
+          <a:chExt cx="2674620" cy="1440180"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8435F31-0A5A-49C2-B620-BF5A68099980}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2125980" y="1432560"/>
+            <a:ext cx="2674620" cy="1440180"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="フローチャート: 組合せ 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19404DE1-75F2-4038-BDCF-39B14C15F9E3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4130040" y="2072640"/>
+            <a:ext cx="502920" cy="640080"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矢印: 五方向 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E923F6-2F8A-4CE6-A8E2-953AFDE7A37C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2141220" y="1485900"/>
+            <a:ext cx="1318260" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="homePlate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ランキング</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="矢印: 五方向 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6208227-17E6-4210-ACC4-91F80BEE14E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2308860" y="1813560"/>
+            <a:ext cx="1318260" cy="198120"/>
+          </a:xfrm>
+          <a:prstGeom prst="homePlate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>99999</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="矢印: 五方向 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703400A2-C920-47C9-8DA8-0993B6B40035}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2560320" y="2072640"/>
+            <a:ext cx="1318260" cy="167640"/>
+          </a:xfrm>
+          <a:prstGeom prst="homePlate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>55555</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="矢印: 五方向 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44750D08-0EEE-428C-A145-D66543A3CB52}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2750820" y="2301240"/>
+            <a:ext cx="1318260" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="homePlate">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>位：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>22222</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="スマイル 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1867959F-4344-4C09-86A8-4F9BEADEB5BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4130040" y="1592580"/>
+            <a:ext cx="502920" cy="480060"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8163F03C-BBD2-4A8D-9D9A-F9AA5767C2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6141720" y="1432560"/>
+          <a:ext cx="2179320" cy="1318260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C51B76-19D7-4693-8BF0-3113D569B4C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="1584960"/>
+          <a:ext cx="502920" cy="1127760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094B2264-D500-485E-9B4C-8ACA4C374684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="1440180"/>
+          <a:ext cx="899160" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ランキング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A382A740-F6F9-486D-8BC4-1A76CBE2DE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065520" y="2407920"/>
+          <a:ext cx="1005840" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>タイトルへ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>キー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9A009F-EE0F-40DA-92DC-F922255600C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="1905000"/>
+          <a:ext cx="1066800" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル誘導</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19997812-E125-402A-97F1-D66C5140A8CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9326880" y="1577340"/>
+          <a:ext cx="731520" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>女の子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D95C04-144C-414C-B1A0-D3E667F86934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9326880" y="2247900"/>
+          <a:ext cx="502920" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B864324C-D103-4CB4-9CFD-1391F1F61A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6141720" y="2392680"/>
+          <a:ext cx="838200" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB89CAE-1215-4B23-B746-BC436378ECA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5806440" y="1592580"/>
+          <a:ext cx="335280" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CECB5E-3FED-4320-A458-17C20E1E1258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5974080" y="2080260"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29DE5FF6-7E15-4039-A666-91FE0D2DB93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8656320" y="1737360"/>
+          <a:ext cx="670560" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF0E707-6A93-468A-A936-7BCA55DCE41A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8823960" y="2392680"/>
+          <a:ext cx="502920" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矢印: 五方向 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8095F6C5-2576-4857-BAB7-AC5C6EB6FDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="2552700"/>
+          <a:ext cx="1318260" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>you</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>22222</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矢印: 五方向 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31A4FCB-F075-46BB-8668-6844151D597B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7002780" y="2537460"/>
+          <a:ext cx="1318260" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>you</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>22222</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA273782-2202-4CD9-9415-C64AA1FFD564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="2446020"/>
+          <a:ext cx="1005840" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>タイトルへ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>キー</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3383,27 +7520,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H4"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="5.3125" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" customWidth="1"/>
-    <col min="7" max="7" width="11.8125" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3415,6 +7552,48 @@
       </c>
       <c r="H4" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E5" s="14">
+        <v>45973</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="14">
+        <v>46003</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E7" s="14">
+        <v>46003</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3428,16 +7607,16 @@
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3448,171 +7627,171 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C51" s="10"/>
       <c r="E51" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E63" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C67" s="10"/>
       <c r="E67" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E71" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E77" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E83" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E101" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E103" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E105" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D108" s="11" t="s">
         <v>37</v>
       </c>
@@ -3628,19 +7807,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3651,53 +7830,420 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="3:3" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C40" s="10"/>
-    </row>
-    <row r="51" spans="3:3" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C51" s="10"/>
-    </row>
-    <row r="67" spans="3:3" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C67" s="10"/>
-    </row>
-    <row r="81" spans="3:3" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C81" s="10"/>
-    </row>
-    <row r="108" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D108" s="11" t="s">
+    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="10"/>
+      <c r="E59" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C70" s="10"/>
+      <c r="E70" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C79" s="10"/>
+      <c r="E79" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E90" t="s">
+        <v>68</v>
+      </c>
+      <c r="K90" t="s">
+        <v>71</v>
+      </c>
+      <c r="M90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E91" t="s">
+        <v>69</v>
+      </c>
+      <c r="K91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E92" t="s">
+        <v>70</v>
+      </c>
+      <c r="K92" t="s">
+        <v>71</v>
+      </c>
+      <c r="M92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F95" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C97" s="10"/>
+      <c r="E97" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E100" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C110" s="10"/>
+      <c r="E110" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E114" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C122" s="10"/>
+      <c r="E122" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E124" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D133" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E108" s="12"/>
+      <c r="E133" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="10"/>
+      <c r="E28" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="10"/>
+      <c r="E33" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="10"/>
+      <c r="E39" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C43" s="10"/>
+      <c r="E43" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E50" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\ハートキャッチゲーム\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC1029-A0D9-4624-95C7-F7BB4EE99652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3E4AC8-1E43-4BF0-8B0F-A0F9C8AC38C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -789,16 +789,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>これらは後から変更できるようにわかりやすくコメントもしておいてください</t>
-    <rPh sb="4" eb="5">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ドット絵の青空をいれてください</t>
     <rPh sb="3" eb="4">
       <t>エ</t>
@@ -1003,6 +993,55 @@
     <t>ランキング画面仕様</t>
     <rPh sb="5" eb="9">
       <t>ガメンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>琉星君よろしく</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これをそのままドット絵にして使います</t>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>流星君よろしく</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これらは後から変更できるようにわかりやすくコメントもしておいてください（点数と落下速度も）</t>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>ラッカソクド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1098,7 +1137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1121,13 +1160,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,6 +1224,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7520,18 +7591,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="13.19921875" customWidth="1"/>
     <col min="6" max="6" width="7.296875" customWidth="1"/>
     <col min="7" max="7" width="17.59765625" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="8" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
@@ -7559,13 +7628,13 @@
         <v>45973</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="H5" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7573,27 +7642,69 @@
         <v>46003</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E7" s="14">
-        <v>46003</v>
+        <v>45973</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E8" s="14">
+        <v>45974</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>87</v>
+      <c r="H8" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E9" s="14">
+        <v>45974</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E10" s="14">
+        <v>45974</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7606,9 +7717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7765,13 +7874,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="16">
+        <v>45974</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
       <c r="E83" t="s">
         <v>33</v>
       </c>
@@ -7809,9 +7924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7963,22 +8076,33 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E81" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="16">
+        <v>45974</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
       <c r="E83" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E90" t="s">
         <v>68</v>
       </c>
@@ -7989,7 +8113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E91" t="s">
         <v>69</v>
       </c>
@@ -8000,7 +8124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E92" t="s">
         <v>70</v>
       </c>
@@ -8011,12 +8135,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="5:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F95" t="s">
         <v>78</v>
       </c>
@@ -8070,27 +8194,27 @@
     <row r="110" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C110" s="10"/>
       <c r="E110" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F118" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8101,12 +8225,12 @@
     </row>
     <row r="124" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8127,120 +8251,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="20"/>
       <c r="C28" s="10"/>
       <c r="E28" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E30" t="s">
+    <row r="31" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="20"/>
       <c r="C33" s="10"/>
       <c r="E33" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="20"/>
       <c r="C39" s="10"/>
       <c r="E39" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="20"/>
       <c r="C43" s="10"/>
       <c r="E43" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="21"/>
       <c r="E50" s="11" t="s">
         <v>37</v>
       </c>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3E4AC8-1E43-4BF0-8B0F-A0F9C8AC38C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E742D44B-0DA1-4B3E-8B8E-50CA1B202463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1042,6 +1042,33 @@
     </rPh>
     <rPh sb="39" eb="43">
       <t>ラッカソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>documentに入れてあります</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像に変更</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトルを画像に変更</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2186,6 +2213,50 @@
         <a:xfrm>
           <a:off x="3438525" y="12801600"/>
           <a:ext cx="3853006" cy="2164268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>50494</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>140281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C234B933-4486-42E8-B520-626AA0312A2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6446520" y="6461760"/>
+          <a:ext cx="2328874" cy="841321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7591,16 +7662,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H10"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="13.19921875" customWidth="1"/>
     <col min="6" max="6" width="7.296875" customWidth="1"/>
     <col min="7" max="7" width="17.59765625" customWidth="1"/>
-    <col min="8" max="8" width="14.296875" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
@@ -7707,17 +7780,32 @@
         <v>105</v>
       </c>
     </row>
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E11" s="14">
+        <v>45974</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7771,74 +7859,85 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="16">
+        <v>45974</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
       <c r="E42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C51" s="10"/>
       <c r="E51" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E63" t="s">
         <v>27</v>
       </c>
@@ -8251,9 +8350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E742D44B-0DA1-4B3E-8B8E-50CA1B202463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D6BC9-CD3D-444D-A992-0434233C270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D6BC9-CD3D-444D-A992-0434233C270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D87394A-7D72-412D-A635-37ABA28CF86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1069,6 +1069,113 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイムは最大3桁まで表示</t>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3つのハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上の図のように点数を表示してください</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイムの数値は少し大きめに表示</t>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この数値は字体を合わせたいのでプログラムで出してほしいです</t>
+    <rPh sb="2" eb="4">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残り時間が10秒以下になったら点滅させてください</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ビョウイカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絵は背景と合わせて入れておきます</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2296,8 +2403,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7604760" y="1981200"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="7658100" y="1981200"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -2660,16 +2767,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2684,8 +2791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7681913" y="2133600"/>
-          <a:ext cx="628650" cy="838200"/>
+          <a:off x="7724775" y="2133600"/>
+          <a:ext cx="742950" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2949,8 +3056,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3307080" y="1981200"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3308985" y="1981200"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3307080" y="1981200"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -3974,64 +4081,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4319D58-7403-4319-AEF3-94F4C8EEF515}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7475220" y="3185160"/>
-          <a:ext cx="914400" cy="220980"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>16669</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -4234,8 +4283,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3444240" y="5943600"/>
-          <a:ext cx="3200400" cy="1676400"/>
+          <a:off x="3448050" y="5943600"/>
+          <a:ext cx="3238500" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -4508,7 +4557,7 @@
           <a:p>
             <a:pPr algn="r"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
               <a:t>999</a:t>
             </a:r>
           </a:p>
@@ -4561,6 +4610,64 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4319D58-7403-4319-AEF3-94F4C8EEF515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7475220" y="3185160"/>
+          <a:ext cx="914400" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5164,13 +5271,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89058</xdr:rowOff>
+      <xdr:colOff>103823</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
@@ -5190,8 +5297,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7067550" y="3441858"/>
-          <a:ext cx="880110" cy="512922"/>
+          <a:off x="7114223" y="3576638"/>
+          <a:ext cx="567690" cy="378142"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5224,13 +5331,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5292,13 +5399,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5357,13 +5464,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5421,6 +5528,951 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104254</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104254</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="ハート 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E9F48C-5B66-47FC-AF6A-571BF1A56F9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552304" y="7029442"/>
+          <a:ext cx="161925" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99495</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100009</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>75245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="ハート 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EAC941-E596-48A6-AC70-074226487713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3547545" y="7243760"/>
+          <a:ext cx="162439" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99495</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100009</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>118112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="ハート 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60D361A-8772-4FA1-BEBB-11020AE80450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3547545" y="7439027"/>
+          <a:ext cx="162439" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7DDBF7-3811-46D2-80A5-D4BC4AC75AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="6962776"/>
+          <a:ext cx="557213" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>300</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>147634</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147634</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="ハート 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30F5E39-ECCA-43AB-8981-ABA17F2DC895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3433759" y="3043228"/>
+          <a:ext cx="161925" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143389</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>51431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="ハート 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36AA8AA-13AC-4A4C-9CD2-78BB9ED899FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3257546"/>
+          <a:ext cx="162439" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143389</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="ハート 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726072CD-0700-4F43-AA8C-A334AEC2B444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3452813"/>
+          <a:ext cx="162439" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14805</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86243</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334A3FD9-8C28-4AA7-8560-297E7B3F1EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3624780" y="2976562"/>
+          <a:ext cx="557213" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>300</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>119059</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>119059</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="ハート 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1055A9-3D6D-4E19-A715-5BFBED911123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7777159" y="3057516"/>
+          <a:ext cx="161925" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114814</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="ハート 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7294E1D6-B591-4709-97AE-D4063E6DC8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="3271834"/>
+          <a:ext cx="162439" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114814</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="ハート 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3909B1C-B6C5-4567-9885-A9A39FBDCF96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="3467101"/>
+          <a:ext cx="162439" cy="146685"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>148155</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57668</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1FA6C3-7071-443E-9D9B-8BBFAB6B5AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7968180" y="2990850"/>
+          <a:ext cx="557213" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>300</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5452,8 +6504,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6149340" y="1440180"/>
-          <a:ext cx="2674620" cy="1440180"/>
+          <a:off x="6122670" y="1455420"/>
+          <a:ext cx="2659380" cy="1457325"/>
           <a:chOff x="2125980" y="1432560"/>
           <a:chExt cx="2674620" cy="1440180"/>
         </a:xfrm>
@@ -5905,8 +6957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2125980" y="1432560"/>
-          <a:ext cx="2674620" cy="1440180"/>
+          <a:off x="2122170" y="1447800"/>
+          <a:ext cx="2659380" cy="1457325"/>
           <a:chOff x="2125980" y="1432560"/>
           <a:chExt cx="2674620" cy="1440180"/>
         </a:xfrm>
@@ -7668,21 +8720,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" customWidth="1"/>
-    <col min="8" max="8" width="20.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.1875" customWidth="1"/>
+    <col min="6" max="6" width="7.3125" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -7696,7 +8748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="14">
         <v>45973</v>
       </c>
@@ -7710,7 +8762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E6" s="14">
         <v>46003</v>
       </c>
@@ -7724,7 +8776,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E7" s="14">
         <v>45973</v>
       </c>
@@ -7738,7 +8790,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E8" s="14">
         <v>45974</v>
       </c>
@@ -7752,7 +8804,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" s="14">
         <v>45974</v>
       </c>
@@ -7766,7 +8818,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E10" s="14">
         <v>45974</v>
       </c>
@@ -7780,7 +8832,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E11" s="14">
         <v>45974</v>
       </c>
@@ -7807,13 +8859,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7824,73 +8876,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>45974</v>
       </c>
@@ -7901,85 +8953,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="3:7" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:7" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C51" s="10"/>
       <c r="E51" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E63" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C67" s="10"/>
       <c r="E67" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E71" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E77" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A83" s="16">
         <v>45974</v>
       </c>
@@ -7990,22 +9042,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E101" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E103" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E105" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D108" s="11" t="s">
         <v>37</v>
       </c>
@@ -8021,17 +9073,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
-  <dimension ref="A1:X133"/>
+  <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8042,301 +9094,345 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D57" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C59" s="10"/>
       <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A65" s="16">
+        <v>45975</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
       <c r="F65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C70" s="10"/>
-      <c r="E70" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E75" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C79" s="10"/>
       <c r="E79" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C88" s="10"/>
+      <c r="E88" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E81" t="s">
+    <row r="90" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E90" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="16">
+    <row r="92" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A92" s="16">
         <v>45974</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B92" t="s">
         <v>103</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="X86" t="s">
+    <row r="95" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="X95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="X88" t="s">
+    <row r="97" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="X97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E90" t="s">
+    <row r="99" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E99" t="s">
         <v>68</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K99" t="s">
         <v>71</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M99" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E91" t="s">
+    <row r="100" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E100" t="s">
         <v>69</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K100" t="s">
         <v>71</v>
       </c>
-      <c r="M91" s="13" t="s">
+      <c r="M100" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E92" t="s">
+    <row r="101" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E101" t="s">
         <v>70</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K101" t="s">
         <v>71</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E94" t="s">
+    <row r="103" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E103" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F95" t="s">
+    <row r="104" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F104" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C97" s="10"/>
-      <c r="E97" s="9" t="s">
+    <row r="106" spans="3:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C106" s="10"/>
+      <c r="E106" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E99" t="s">
+    <row r="108" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E108" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E100" t="s">
+    <row r="109" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E109" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E101" t="s">
+    <row r="110" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E110" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E102" t="s">
+    <row r="111" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E111" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E103" t="s">
+    <row r="112" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E112" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E105" t="s">
+    <row r="114" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E114" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E107" t="s">
+    <row r="116" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E116" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F108" t="s">
+    <row r="117" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F117" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C110" s="10"/>
-      <c r="E110" s="9" t="s">
+    <row r="119" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C119" s="10"/>
+      <c r="E119" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E112" t="s">
+    <row r="121" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E121" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E114" t="s">
+    <row r="123" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E123" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F116" t="s">
+    <row r="125" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F125" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F118" t="s">
+    <row r="127" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F127" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C122" s="10"/>
-      <c r="E122" s="9" t="s">
+    <row r="131" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C131" s="10"/>
+      <c r="E131" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E124" t="s">
+    <row r="133" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E133" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F126" t="s">
+    <row r="135" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F135" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D133" s="11" t="s">
+    <row r="142" spans="3:6" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D142" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E133" s="12"/>
+      <c r="E142" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -8350,15 +9446,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8369,107 +9465,107 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="20"/>
       <c r="C28" s="10"/>
       <c r="E28" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="20"/>
       <c r="C33" s="10"/>
       <c r="E33" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="20"/>
       <c r="C39" s="10"/>
       <c r="E39" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="20"/>
       <c r="C43" s="10"/>
       <c r="E43" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E45" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="21"/>
       <c r="E50" s="11" t="s">
         <v>37</v>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\ハートキャッチゲーム\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D87394A-7D72-412D-A635-37ABA28CF86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B08B67-1082-44B3-BC27-5086CB0FE797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1176,6 +1176,84 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示条件</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーのスコアによって表示する画像を変えます</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示条件追加</t>
+    <rPh sb="0" eb="6">
+      <t>ヒョウジジョウケンツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>woman_1</t>
+  </si>
+  <si>
+    <t>woman_2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5,000以上</t>
+    <rPh sb="1" eb="7">
+      <t>000イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2,000以上5,000未満</t>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーのスコアが2,000未満</t>
+    <rPh sb="15" eb="17">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">woman_3 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイシーンとランキング画面で行って下さい</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1233,7 +1311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,6 +1345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,6 +1463,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6471,6 +6564,150 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112832</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>80095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6DB4AB-A4E2-4282-AC36-B0B40B49E7C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="21202650"/>
+          <a:ext cx="646232" cy="975445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>120242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E98813-5CCC-4594-9F55-1876126B3684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="20840701"/>
+          <a:ext cx="714375" cy="1072741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>76861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19452</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>143489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8110ABBC-B4C1-4D27-AB40-1BF81C45BFDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="20803261"/>
+          <a:ext cx="743352" cy="1133428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8714,11 +8951,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -8844,6 +9079,20 @@
       </c>
       <c r="H11" s="15" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E12" s="25">
+        <v>45979</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -9073,9 +9322,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
-  <dimension ref="A1:X142"/>
+  <dimension ref="A1:AF162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -9412,27 +9661,71 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A131" s="24">
+        <v>45979</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="C131" s="10"/>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E133" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F135" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E138" t="s">
+        <v>125</v>
+      </c>
+      <c r="U138" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F147" t="s">
+        <v>121</v>
+      </c>
+      <c r="V147" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF147" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="3:32" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C151" s="10"/>
+      <c r="E151" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E133" t="s">
+    <row r="153" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E153" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F135" t="s">
+    <row r="155" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F155" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="3:6" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D142" s="11" t="s">
+    <row r="162" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D162" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E142" s="12"/>
+      <c r="E162" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -9446,7 +9739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B08B67-1082-44B3-BC27-5086CB0FE797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF00F5-7D6C-4EBB-A1B9-471CC3A0D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1254,6 +1254,13 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイムは40秒</t>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2765,7 +2772,7 @@
             <a:pPr algn="r"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>999</a:t>
+              <a:t>99</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3440,7 +3447,7 @@
               <a:pPr algn="r"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-                <a:t>999</a:t>
+                <a:t>99</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -4651,7 +4658,7 @@
             <a:pPr algn="r"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>999</a:t>
+              <a:t>99</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6708,6 +6715,57 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3979E68-09B5-467C-A29E-2F6D084785A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="9815513"/>
+          <a:ext cx="1809750" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9106,7 +9164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -9324,7 +9382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
   <dimension ref="A1:AF162"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -9442,7 +9500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A65" s="16">
         <v>45975</v>
       </c>
@@ -9452,43 +9510,46 @@
       <c r="F65" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="R65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G66" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E72" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F73" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F74" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E76" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C79" s="10"/>
       <c r="E79" s="9" t="s">
         <v>55</v>
@@ -9739,7 +9800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF00F5-7D6C-4EBB-A1B9-471CC3A0D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E48CDA-3D49-45B1-A6DA-A155716C335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="133">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1261,6 +1261,67 @@
     <t>タイムは40秒</t>
     <rPh sb="6" eb="7">
       <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイムの仕様変更</t>
+    <rPh sb="4" eb="8">
+      <t>シヨウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示する際の目安</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メヤス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男の子の顔が見えなくて女の子の顔だけ見えるようにしてください</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーがその男の子としてプレイするから顔をイメージさせないため</t>
+    <rPh sb="8" eb="9">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1269,7 +1330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1314,6 +1375,14 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1402,7 +1471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1548,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2302,13 +2374,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2345,13 +2417,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2388,13 +2460,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>81106</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>30668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9009,9 +9081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -9153,6 +9227,20 @@
         <v>120</v>
       </c>
     </row>
+    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E13" s="25">
+        <v>45979</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9162,9 +9250,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -9275,100 +9363,115 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="3:7" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C51" s="10"/>
-      <c r="E51" s="9" t="s">
+    <row r="51" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H54" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C56" s="10"/>
+      <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E53" t="s">
+    <row r="58" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E55" t="s">
+    <row r="60" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="3:7" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E63" t="s">
+    <row r="68" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E65" t="s">
+    <row r="70" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C67" s="10"/>
-      <c r="E67" s="9" t="s">
+    <row r="72" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C72" s="10"/>
+      <c r="E72" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E69" t="s">
+    <row r="74" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E71" t="s">
+    <row r="76" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E77" t="s">
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E79" t="s">
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C81" s="10"/>
-      <c r="E81" s="9" t="s">
+    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C86" s="10"/>
+      <c r="E86" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A83" s="16">
+    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A88" s="16">
         <v>45974</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" t="s">
         <v>103</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E101" t="s">
+    <row r="106" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E103" t="s">
+    <row r="108" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E105" t="s">
+    <row r="110" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D108" s="11" t="s">
+    <row r="113" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D113" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E108" s="12"/>
+      <c r="E113" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -9382,7 +9485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
   <dimension ref="A1:AF162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="Q123" sqref="Q123"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -9471,7 +9576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="3:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D57" t="s">
         <v>61</v>
       </c>
@@ -9479,23 +9584,29 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="3:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C59" s="10"/>
       <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="3:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="3:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="3:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A64" s="16">
+        <v>45979</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="F64" t="s">
         <v>51</v>
       </c>
@@ -9694,6 +9805,11 @@
     <row r="117" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F117" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E118" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E48CDA-3D49-45B1-A6DA-A155716C335A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807D03F-20F5-432C-8746-BDF0F81D6B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
@@ -9252,7 +9252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807D03F-20F5-432C-8746-BDF0F81D6B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F921DA9-6E78-4D18-8B18-85679D93E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1322,6 +1322,19 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この二つの数字は右揃えにしてください</t>
+    <rPh sb="2" eb="3">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミギゾロ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2575,8 +2588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7658100" y="1981200"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="7604760" y="1981200"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -3228,8 +3241,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3308985" y="1981200"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3307080" y="1981200"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3307080" y="1981200"/>
           <a:chExt cx="3200400" cy="1676400"/>
         </a:xfrm>
@@ -4455,8 +4468,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3448050" y="5943600"/>
-          <a:ext cx="3238500" cy="1676400"/>
+          <a:off x="3444240" y="5943600"/>
+          <a:ext cx="3200400" cy="1676400"/>
           <a:chOff x="3281363" y="1981200"/>
           <a:chExt cx="3143250" cy="1676400"/>
         </a:xfrm>
@@ -5503,13 +5516,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5571,13 +5584,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5636,13 +5649,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6649,13 +6662,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>112832</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>80095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6693,13 +6706,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>120242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6743,13 +6756,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>76861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>19452</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>143489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6840,6 +6853,472 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="グループ化 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A934057F-262B-4B45-A5DF-71B37D7EAF6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7764780" y="9448800"/>
+          <a:ext cx="3200400" cy="1676400"/>
+          <a:chOff x="3281363" y="1981200"/>
+          <a:chExt cx="3143250" cy="1676400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="正方形/長方形 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03A492C-DA54-4416-A12B-6E406F9389B1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3281363" y="1981200"/>
+            <a:ext cx="3143250" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="44450">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="正方形/長方形 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54F025D-B783-4A5A-BD90-608A639C99AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4138612" y="1981200"/>
+            <a:ext cx="1414464" cy="1676400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="31750">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="二等辺三角形 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F10A27-D068-4943-AEAB-B01757931F27}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="5795963" y="2895600"/>
+            <a:ext cx="471487" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="スマイル 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B296D0-8B4A-4280-992B-A1A578F50FE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5795963" y="2438400"/>
+            <a:ext cx="471487" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="テキスト ボックス 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DB97FB-A67C-45A5-BEF5-387165DEB8B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3443288" y="2138362"/>
+            <a:ext cx="628650" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>time</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>99</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>score</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>99999</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="99" name="図 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E7853B-B50D-44CB-8185-B81A847D8FA9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4590005" y="3200400"/>
+            <a:ext cx="456057" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A695E6AA-5179-4918-8701-44FBBBED36E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8488680" y="9631680"/>
+          <a:ext cx="0" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1610198A-DFB1-46F8-82E8-5D968C8A5149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6156960" y="10386060"/>
+          <a:ext cx="1851660" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6871,8 +7350,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6122670" y="1455420"/>
-          <a:ext cx="2659380" cy="1457325"/>
+          <a:off x="6149340" y="1440180"/>
+          <a:ext cx="2674620" cy="1440180"/>
           <a:chOff x="2125980" y="1432560"/>
           <a:chExt cx="2674620" cy="1440180"/>
         </a:xfrm>
@@ -7324,8 +7803,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2122170" y="1447800"/>
-          <a:ext cx="2659380" cy="1457325"/>
+          <a:off x="2125980" y="1432560"/>
+          <a:ext cx="2674620" cy="1440180"/>
           <a:chOff x="2125980" y="1432560"/>
           <a:chExt cx="2674620" cy="1440180"/>
         </a:xfrm>
@@ -9087,21 +9566,21 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="13.1875" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -9115,7 +9594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="14">
         <v>45973</v>
       </c>
@@ -9129,7 +9608,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E6" s="14">
         <v>46003</v>
       </c>
@@ -9143,7 +9622,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E7" s="14">
         <v>45973</v>
       </c>
@@ -9157,7 +9636,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E8" s="14">
         <v>45974</v>
       </c>
@@ -9171,7 +9650,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" s="14">
         <v>45974</v>
       </c>
@@ -9185,7 +9664,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" s="14">
         <v>45974</v>
       </c>
@@ -9199,7 +9678,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E11" s="14">
         <v>45974</v>
       </c>
@@ -9213,7 +9692,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E12" s="25">
         <v>45979</v>
       </c>
@@ -9227,7 +9706,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E13" s="25">
         <v>45979</v>
       </c>
@@ -9252,15 +9731,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9271,73 +9750,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16">
         <v>45974</v>
       </c>
@@ -9348,100 +9827,100 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F51" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H54" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="3:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="3:8" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C56" s="10"/>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="3:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="3:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C72" s="10"/>
       <c r="E72" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="3:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C86" s="10"/>
       <c r="E86" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="16">
         <v>45974</v>
       </c>
@@ -9452,22 +9931,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D113" s="11" t="s">
         <v>37</v>
       </c>
@@ -9483,19 +9962,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
-  <dimension ref="A1:AF162"/>
+  <dimension ref="A1:AF164"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="Q123" sqref="Q123"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9506,77 +9983,77 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="4:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
         <v>61</v>
       </c>
@@ -9584,23 +10061,23 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:19" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C59" s="10"/>
       <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="16">
         <v>45979</v>
       </c>
@@ -9611,7 +10088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="16">
         <v>45975</v>
       </c>
@@ -9625,284 +10102,289 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G66" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E72" t="s">
+    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E74" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F73" t="s">
+    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F75" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F74" t="s">
+    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F76" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E76" t="s">
+    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E78" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C79" s="10"/>
-      <c r="E79" s="9" t="s">
+    <row r="81" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="10"/>
+      <c r="E81" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E81" t="s">
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E83" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E83" t="s">
+    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E84" t="s">
+    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E85" t="s">
+    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C88" s="10"/>
-      <c r="E88" s="9" t="s">
+    <row r="90" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C90" s="10"/>
+      <c r="E90" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E90" t="s">
+    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E92" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A92" s="16">
+    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="16">
         <v>45974</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>103</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="X95" t="s">
+    <row r="97" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X97" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="X97" t="s">
+    <row r="99" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X99" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E99" t="s">
+    <row r="101" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E101" t="s">
         <v>68</v>
-      </c>
-      <c r="K99" t="s">
-        <v>71</v>
-      </c>
-      <c r="M99" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="100" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E100" t="s">
-        <v>69</v>
-      </c>
-      <c r="K100" t="s">
-        <v>71</v>
-      </c>
-      <c r="M100" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E101" t="s">
-        <v>70</v>
       </c>
       <c r="K101" t="s">
         <v>71</v>
       </c>
       <c r="M101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E102" t="s">
+        <v>69</v>
+      </c>
+      <c r="K102" t="s">
+        <v>71</v>
+      </c>
+      <c r="M102" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E103" t="s">
+        <v>70</v>
+      </c>
+      <c r="K103" t="s">
+        <v>71</v>
+      </c>
+      <c r="M103" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E103" t="s">
+    <row r="105" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F104" t="s">
+    <row r="106" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="3:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C106" s="10"/>
-      <c r="E106" s="9" t="s">
+    <row r="108" spans="3:24" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C108" s="10"/>
+      <c r="E108" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E108" t="s">
+    <row r="110" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E110" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E109" t="s">
+    <row r="111" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E110" t="s">
+    <row r="112" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E111" t="s">
+    <row r="113" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E113" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="3:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E112" t="s">
+    <row r="114" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E114" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E114" t="s">
+    <row r="116" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E116" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E116" t="s">
+    <row r="118" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E118" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F117" t="s">
+    <row r="119" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E118" t="s">
+    <row r="120" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E120" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C119" s="10"/>
-      <c r="E119" s="9" t="s">
+    <row r="121" spans="3:6" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C121" s="10"/>
+      <c r="E121" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E121" t="s">
+    <row r="123" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E123" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E123" t="s">
+    <row r="125" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E125" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F125" t="s">
+    <row r="127" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="3:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F127" t="s">
+    <row r="129" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F129" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A131" s="24">
+    <row r="133" spans="1:32" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="24">
         <v>45979</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="B133" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C131" s="10"/>
-      <c r="E131" s="23" t="s">
+      <c r="C133" s="10"/>
+      <c r="E133" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E133" t="s">
+    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E135" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F135" t="s">
+    <row r="137" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F137" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E138" t="s">
+    <row r="140" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E140" t="s">
         <v>125</v>
       </c>
-      <c r="U138" t="s">
+      <c r="U140" t="s">
         <v>124</v>
       </c>
-      <c r="AF138" t="s">
+      <c r="AF140" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F147" t="s">
+    <row r="149" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F149" t="s">
         <v>121</v>
       </c>
-      <c r="V147" t="s">
+      <c r="V149" t="s">
         <v>122</v>
       </c>
-      <c r="AF147" t="s">
+      <c r="AF149" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="3:32" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C151" s="10"/>
-      <c r="E151" s="9" t="s">
+    <row r="153" spans="3:32" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C153" s="10"/>
+      <c r="E153" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E153" t="s">
+    <row r="155" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E155" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F155" t="s">
+    <row r="157" spans="3:32" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F157" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D162" s="11" t="s">
+    <row r="164" spans="4:5" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D164" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E162" s="12"/>
+      <c r="E164" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -9918,13 +10400,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9935,107 +10417,107 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="18"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="20"/>
       <c r="C28" s="10"/>
       <c r="E28" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="20"/>
       <c r="C33" s="10"/>
       <c r="E33" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="20"/>
       <c r="C39" s="10"/>
       <c r="E39" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:6" s="9" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="20"/>
       <c r="C43" s="10"/>
       <c r="E43" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E45" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:5" s="1" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="21"/>
       <c r="E50" s="11" t="s">
         <v>37</v>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F921DA9-6E78-4D18-8B18-85679D93E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153A2F1-1E62-4B53-BE6F-FA7B27EC77A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="135">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1335,6 +1335,22 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ミギゾロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値に関する仕様追加</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9560,11 +9576,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9720,6 +9734,20 @@
         <v>129</v>
       </c>
     </row>
+    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E14" s="14">
+        <v>45981</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9731,7 +9759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9964,7 +9992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
   <dimension ref="A1:AF164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10118,6 +10146,12 @@
       </c>
     </row>
     <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="16">
+        <v>45981</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
       <c r="F72" t="s">
         <v>133</v>
       </c>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153A2F1-1E62-4B53-BE6F-FA7B27EC77A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8EB2E6-6FB4-4B46-B274-D79019AA1C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -7283,12 +7283,12 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -7305,8 +7305,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6156960" y="10386060"/>
-          <a:ext cx="1851660" cy="502920"/>
+          <a:off x="6156960" y="10302240"/>
+          <a:ext cx="1859280" cy="586740"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9578,7 +9578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9759,7 +9759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9992,7 +9992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADC6AFD-B471-488C-91FA-BE2A4366C7FC}">
   <dimension ref="A1:AF164"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10432,7 +10432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F70B-BC70-4574-9645-04DF8564C06C}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>

--- a/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
+++ b/ハートキャッチゲーム/Document/2.ハートゲーム画面仕様.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tt\ハートキャッチゲーム\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8EB2E6-6FB4-4B46-B274-D79019AA1C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD708CC1-BAB9-43FC-8DA3-4F629892C104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
